--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myprogect\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="13_ncr:1_{3DEA83FD-D983-490D-A60E-D19E6D1B658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39225065-080F-43D1-85B5-39D9A7E864A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C0901-8596-470A-8F0E-CF14CB42ECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1733" windowWidth="21600" windowHeight="11947" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1260,6 +1260,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1497,7 +1505,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1564,12 +1572,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
     <cellStyle name="Normal 10 2" xfId="6" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
     <cellStyle name="Normal_Constants 2" xfId="5" xr:uid="{C6AA90A5-1043-4AB8-B229-DB93742915B6}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 11" xfId="2" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
     <cellStyle name="Normalny 12" xfId="3" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
@@ -1775,7 +1784,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1813,7 +1822,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1885,7 +1894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2065,24 +2074,24 @@
       <selection activeCell="I8" sqref="I8:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="20"/>
     </row>
-    <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>89</v>
       </c>
@@ -2091,13 +2100,13 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2116,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="45" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>7SU</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>1R7SU</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="42" t="s">
         <v>85</v>
       </c>
@@ -2231,7 +2240,7 @@
         <v>2S7SU</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="43" t="s">
         <v>86</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>3F7SU</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" s="42" t="s">
         <v>87</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>4W7SU</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="43"/>
       <c r="F12" s="43" t="s">
         <v>111</v>
@@ -2319,7 +2328,7 @@
         <v>1R1MO5H</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E13" s="42"/>
       <c r="F13" s="42" t="s">
         <v>112</v>
@@ -2356,7 +2365,7 @@
         <v>8H</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E14" s="43"/>
       <c r="F14" s="43" t="s">
         <v>113</v>
@@ -2397,7 +2406,7 @@
         <v>1R1MO8H</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42" t="s">
@@ -2434,7 +2443,7 @@
         <v>1R2TU8H</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -2469,7 +2478,7 @@
         <v>1R3WE8H</v>
       </c>
     </row>
-    <row r="17" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -2504,7 +2513,7 @@
         <v>1R4TH8H</v>
       </c>
     </row>
-    <row r="18" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -2539,7 +2548,7 @@
         <v>1R5FR8H</v>
       </c>
     </row>
-    <row r="19" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -2574,7 +2583,7 @@
         <v>1R6SA8H</v>
       </c>
     </row>
-    <row r="20" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -2609,7 +2618,7 @@
         <v>1R7SU8H</v>
       </c>
     </row>
-    <row r="21" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -2644,7 +2653,7 @@
         <v>2S1MO8H</v>
       </c>
     </row>
-    <row r="22" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
@@ -2679,7 +2688,7 @@
         <v>2S2TU8H</v>
       </c>
     </row>
-    <row r="23" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -2714,7 +2723,7 @@
         <v>2S3WE8H</v>
       </c>
     </row>
-    <row r="24" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -2749,7 +2758,7 @@
         <v>2S4TH8H</v>
       </c>
     </row>
-    <row r="25" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -2784,7 +2793,7 @@
         <v>2S5FR8H</v>
       </c>
     </row>
-    <row r="26" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2819,7 +2828,7 @@
         <v>2S6SA8H</v>
       </c>
     </row>
-    <row r="27" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -2854,7 +2863,7 @@
         <v>2S7SU8H</v>
       </c>
     </row>
-    <row r="28" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -2889,7 +2898,7 @@
         <v>3F1MO8H</v>
       </c>
     </row>
-    <row r="29" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -2924,7 +2933,7 @@
         <v>3F2TU8H</v>
       </c>
     </row>
-    <row r="30" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -2959,7 +2968,7 @@
         <v>3F3WE8H</v>
       </c>
     </row>
-    <row r="31" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -2994,7 +3003,7 @@
         <v>3F4TH8H</v>
       </c>
     </row>
-    <row r="32" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
@@ -3029,7 +3038,7 @@
         <v>3F5FR8H</v>
       </c>
     </row>
-    <row r="33" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -3064,7 +3073,7 @@
         <v>3F6SA8H</v>
       </c>
     </row>
-    <row r="34" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
@@ -3099,7 +3108,7 @@
         <v>3F7SU8H</v>
       </c>
     </row>
-    <row r="35" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -3134,7 +3143,7 @@
         <v>4W1MO8H</v>
       </c>
     </row>
-    <row r="36" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
@@ -3169,7 +3178,7 @@
         <v>4W2TU8H</v>
       </c>
     </row>
-    <row r="37" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -3204,7 +3213,7 @@
         <v>4W3WE8H</v>
       </c>
     </row>
-    <row r="38" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
@@ -3239,7 +3248,7 @@
         <v>4W4TH8H</v>
       </c>
     </row>
-    <row r="39" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -3274,7 +3283,7 @@
         <v>4W5FR8H</v>
       </c>
     </row>
-    <row r="40" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3309,7 +3318,7 @@
         <v>4W6SA8H</v>
       </c>
     </row>
-    <row r="41" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -3344,7 +3353,7 @@
         <v>4W7SU8H</v>
       </c>
     </row>
-    <row r="42" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
@@ -3352,7 +3361,7 @@
         <v>1R5FR3H</v>
       </c>
     </row>
-    <row r="43" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -3360,7 +3369,7 @@
         <v>1R5FR4H</v>
       </c>
     </row>
-    <row r="44" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
@@ -3368,7 +3377,7 @@
         <v>1R5FR5H</v>
       </c>
     </row>
-    <row r="45" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -3376,7 +3385,7 @@
         <v>1R5FR6H</v>
       </c>
     </row>
-    <row r="46" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
@@ -3384,7 +3393,7 @@
         <v>1R5FR7H</v>
       </c>
     </row>
-    <row r="47" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -3392,7 +3401,7 @@
         <v>1R5FR8H</v>
       </c>
     </row>
-    <row r="48" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -3400,7 +3409,7 @@
         <v>1R6SA1H</v>
       </c>
     </row>
-    <row r="49" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -3408,7 +3417,7 @@
         <v>1R6SA2H</v>
       </c>
     </row>
-    <row r="50" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -3416,7 +3425,7 @@
         <v>1R6SA3H</v>
       </c>
     </row>
-    <row r="51" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -3424,7 +3433,7 @@
         <v>1R6SA4H</v>
       </c>
     </row>
-    <row r="52" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -3432,7 +3441,7 @@
         <v>1R6SA5H</v>
       </c>
     </row>
-    <row r="53" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -3440,7 +3449,7 @@
         <v>1R6SA6H</v>
       </c>
     </row>
-    <row r="54" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E54" s="43"/>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -3448,7 +3457,7 @@
         <v>1R6SA7H</v>
       </c>
     </row>
-    <row r="55" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -3456,7 +3465,7 @@
         <v>1R6SA8H</v>
       </c>
     </row>
-    <row r="56" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
@@ -3464,7 +3473,7 @@
         <v>1R7SU1H</v>
       </c>
     </row>
-    <row r="57" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -3472,7 +3481,7 @@
         <v>1R7SU2H</v>
       </c>
     </row>
-    <row r="58" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E58" s="43"/>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
@@ -3480,7 +3489,7 @@
         <v>1R7SU3H</v>
       </c>
     </row>
-    <row r="59" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -3488,7 +3497,7 @@
         <v>1R7SU4H</v>
       </c>
     </row>
-    <row r="60" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E60" s="43"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
@@ -3496,7 +3505,7 @@
         <v>1R7SU5H</v>
       </c>
     </row>
-    <row r="61" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -3504,7 +3513,7 @@
         <v>1R7SU6H</v>
       </c>
     </row>
-    <row r="62" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
@@ -3512,7 +3521,7 @@
         <v>1R7SU7H</v>
       </c>
     </row>
-    <row r="63" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E63" s="44"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
@@ -3520,842 +3529,842 @@
         <v>1R7SU8H</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.35">
       <c r="I64" t="str">
         <v>2S1MO1H</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" t="str">
         <v>2S1MO2H</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" t="str">
         <v>2S1MO3H</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" t="str">
         <v>2S1MO4H</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" t="str">
         <v>2S1MO5H</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" t="str">
         <v>2S1MO6H</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" t="str">
         <v>2S1MO7H</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" t="str">
         <v>2S1MO8H</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" t="str">
         <v>2S2TU1H</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" t="str">
         <v>2S2TU2H</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" t="str">
         <v>2S2TU3H</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" t="str">
         <v>2S2TU4H</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" t="str">
         <v>2S2TU5H</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" t="str">
         <v>2S2TU6H</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" t="str">
         <v>2S2TU7H</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" t="str">
         <v>2S2TU8H</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" t="str">
         <v>2S3WE1H</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" t="str">
         <v>2S3WE2H</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" t="str">
         <v>2S3WE3H</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" t="str">
         <v>2S3WE4H</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" t="str">
         <v>2S3WE5H</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" t="str">
         <v>2S3WE6H</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" t="str">
         <v>2S3WE7H</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" t="str">
         <v>2S3WE8H</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" t="str">
         <v>2S4TH1H</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" t="str">
         <v>2S4TH2H</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" t="str">
         <v>2S4TH3H</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" t="str">
         <v>2S4TH4H</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" t="str">
         <v>2S4TH5H</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" t="str">
         <v>2S4TH6H</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" t="str">
         <v>2S4TH7H</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" t="str">
         <v>2S4TH8H</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" t="str">
         <v>2S5FR1H</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" t="str">
         <v>2S5FR2H</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" t="str">
         <v>2S5FR3H</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" t="str">
         <v>2S5FR4H</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" t="str">
         <v>2S5FR5H</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" t="str">
         <v>2S5FR6H</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" t="str">
         <v>2S5FR7H</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" t="str">
         <v>2S5FR8H</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" t="str">
         <v>2S6SA1H</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" t="str">
         <v>2S6SA2H</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" t="str">
         <v>2S6SA3H</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" t="str">
         <v>2S6SA4H</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" t="str">
         <v>2S6SA5H</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I109" t="str">
         <v>2S6SA6H</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I110" t="str">
         <v>2S6SA7H</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I111" t="str">
         <v>2S6SA8H</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I112" t="str">
         <v>2S7SU1H</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I113" t="str">
         <v>2S7SU2H</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I114" t="str">
         <v>2S7SU3H</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I115" t="str">
         <v>2S7SU4H</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I116" t="str">
         <v>2S7SU5H</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I117" t="str">
         <v>2S7SU6H</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I118" t="str">
         <v>2S7SU7H</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I119" t="str">
         <v>2S7SU8H</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I120" t="str">
         <v>3F1MO1H</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I121" t="str">
         <v>3F1MO2H</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I122" t="str">
         <v>3F1MO3H</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I123" t="str">
         <v>3F1MO4H</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I124" t="str">
         <v>3F1MO5H</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I125" t="str">
         <v>3F1MO6H</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I126" t="str">
         <v>3F1MO7H</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I127" t="str">
         <v>3F1MO8H</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I128" t="str">
         <v>3F2TU1H</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" t="str">
         <v>3F2TU2H</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I130" t="str">
         <v>3F2TU3H</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" t="str">
         <v>3F2TU4H</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I132" t="str">
         <v>3F2TU5H</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I133" t="str">
         <v>3F2TU6H</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I134" t="str">
         <v>3F2TU7H</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I135" t="str">
         <v>3F2TU8H</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I136" t="str">
         <v>3F3WE1H</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I137" t="str">
         <v>3F3WE2H</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I138" t="str">
         <v>3F3WE3H</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I139" t="str">
         <v>3F3WE4H</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I140" t="str">
         <v>3F3WE5H</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I141" t="str">
         <v>3F3WE6H</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I142" t="str">
         <v>3F3WE7H</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I143" t="str">
         <v>3F3WE8H</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I144" t="str">
         <v>3F4TH1H</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I145" t="str">
         <v>3F4TH2H</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I146" t="str">
         <v>3F4TH3H</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I147" t="str">
         <v>3F4TH4H</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I148" t="str">
         <v>3F4TH5H</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I149" t="str">
         <v>3F4TH6H</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I150" t="str">
         <v>3F4TH7H</v>
       </c>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I151" t="str">
         <v>3F4TH8H</v>
       </c>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I152" t="str">
         <v>3F5FR1H</v>
       </c>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I153" t="str">
         <v>3F5FR2H</v>
       </c>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I154" t="str">
         <v>3F5FR3H</v>
       </c>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I155" t="str">
         <v>3F5FR4H</v>
       </c>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I156" t="str">
         <v>3F5FR5H</v>
       </c>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I157" t="str">
         <v>3F5FR6H</v>
       </c>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I158" t="str">
         <v>3F5FR7H</v>
       </c>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I159" t="str">
         <v>3F5FR8H</v>
       </c>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I160" t="str">
         <v>3F6SA1H</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I161" t="str">
         <v>3F6SA2H</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I162" t="str">
         <v>3F6SA3H</v>
       </c>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I163" t="str">
         <v>3F6SA4H</v>
       </c>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I164" t="str">
         <v>3F6SA5H</v>
       </c>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I165" t="str">
         <v>3F6SA6H</v>
       </c>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I166" t="str">
         <v>3F6SA7H</v>
       </c>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I167" t="str">
         <v>3F6SA8H</v>
       </c>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I168" t="str">
         <v>3F7SU1H</v>
       </c>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I169" t="str">
         <v>3F7SU2H</v>
       </c>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I170" t="str">
         <v>3F7SU3H</v>
       </c>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I171" t="str">
         <v>3F7SU4H</v>
       </c>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I172" t="str">
         <v>3F7SU5H</v>
       </c>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I173" t="str">
         <v>3F7SU6H</v>
       </c>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I174" t="str">
         <v>3F7SU7H</v>
       </c>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I175" t="str">
         <v>3F7SU8H</v>
       </c>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I176" t="str">
         <v>4W1MO1H</v>
       </c>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I177" t="str">
         <v>4W1MO2H</v>
       </c>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I178" t="str">
         <v>4W1MO3H</v>
       </c>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I179" t="str">
         <v>4W1MO4H</v>
       </c>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I180" t="str">
         <v>4W1MO5H</v>
       </c>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I181" t="str">
         <v>4W1MO6H</v>
       </c>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I182" t="str">
         <v>4W1MO7H</v>
       </c>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I183" t="str">
         <v>4W1MO8H</v>
       </c>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I184" t="str">
         <v>4W2TU1H</v>
       </c>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I185" t="str">
         <v>4W2TU2H</v>
       </c>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I186" t="str">
         <v>4W2TU3H</v>
       </c>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I187" t="str">
         <v>4W2TU4H</v>
       </c>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I188" t="str">
         <v>4W2TU5H</v>
       </c>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I189" t="str">
         <v>4W2TU6H</v>
       </c>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I190" t="str">
         <v>4W2TU7H</v>
       </c>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I191" t="str">
         <v>4W2TU8H</v>
       </c>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I192" t="str">
         <v>4W3WE1H</v>
       </c>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I193" t="str">
         <v>4W3WE2H</v>
       </c>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I194" t="str">
         <v>4W3WE3H</v>
       </c>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I195" t="str">
         <v>4W3WE4H</v>
       </c>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I196" t="str">
         <v>4W3WE5H</v>
       </c>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I197" t="str">
         <v>4W3WE6H</v>
       </c>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I198" t="str">
         <v>4W3WE7H</v>
       </c>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I199" t="str">
         <v>4W3WE8H</v>
       </c>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I200" t="str">
         <v>4W4TH1H</v>
       </c>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I201" t="str">
         <v>4W4TH2H</v>
       </c>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I202" t="str">
         <v>4W4TH3H</v>
       </c>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I203" t="str">
         <v>4W4TH4H</v>
       </c>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I204" t="str">
         <v>4W4TH5H</v>
       </c>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I205" t="str">
         <v>4W4TH6H</v>
       </c>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I206" t="str">
         <v>4W4TH7H</v>
       </c>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I207" t="str">
         <v>4W4TH8H</v>
       </c>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I208" t="str">
         <v>4W5FR1H</v>
       </c>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I209" t="str">
         <v>4W5FR2H</v>
       </c>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I210" t="str">
         <v>4W5FR3H</v>
       </c>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I211" t="str">
         <v>4W5FR4H</v>
       </c>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I212" t="str">
         <v>4W5FR5H</v>
       </c>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I213" t="str">
         <v>4W5FR6H</v>
       </c>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I214" t="str">
         <v>4W5FR7H</v>
       </c>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I215" t="str">
         <v>4W5FR8H</v>
       </c>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I216" t="str">
         <v>4W6SA1H</v>
       </c>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I217" t="str">
         <v>4W6SA2H</v>
       </c>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I218" t="str">
         <v>4W6SA3H</v>
       </c>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I219" t="str">
         <v>4W6SA4H</v>
       </c>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I220" t="str">
         <v>4W6SA5H</v>
       </c>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I221" t="str">
         <v>4W6SA6H</v>
       </c>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I222" t="str">
         <v>4W6SA7H</v>
       </c>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I223" t="str">
         <v>4W6SA8H</v>
       </c>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I224" t="str">
         <v>4W7SU1H</v>
       </c>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I225" t="str">
         <v>4W7SU2H</v>
       </c>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I226" t="str">
         <v>4W7SU3H</v>
       </c>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I227" t="str">
         <v>4W7SU4H</v>
       </c>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I228" t="str">
         <v>4W7SU5H</v>
       </c>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I229" t="str">
         <v>4W7SU6H</v>
       </c>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I230" t="str">
         <v>4W7SU7H</v>
       </c>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I231" t="str">
         <v>4W7SU8H</v>
       </c>
@@ -4377,35 +4386,35 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="40"/>
     </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="33" t="s">
         <v>92</v>
       </c>
@@ -4415,7 +4424,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="23" t="s">
         <v>10</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
@@ -4431,54 +4440,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="26"/>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="26"/>
     </row>
   </sheetData>
@@ -4497,19 +4506,19 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="40"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -4521,8 +4530,8 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>95</v>
       </c>
@@ -4530,15 +4539,15 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
@@ -4555,8 +4564,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="26" t="s">
         <v>103</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4608,7 @@
       </c>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
@@ -4614,25 +4623,25 @@
       </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="20"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="21" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
@@ -4674,9 +4683,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4691,30 +4700,30 @@
   <dimension ref="B3:Q233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="22" customWidth="1"/>
     <col min="4" max="4" width="14" style="22" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="5" max="5" width="5.3984375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.86328125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="5" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
@@ -4725,7 +4734,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -4761,7 +4770,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
@@ -4770,11 +4779,11 @@
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>346</v>
       </c>
@@ -4782,13 +4791,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="11"/>
       <c r="K9" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>122</v>
       </c>
@@ -4803,7 +4812,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -4831,7 +4840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>124</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>125</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>52.142857142857146</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>126</v>
       </c>
@@ -4899,7 +4908,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>127</v>
       </c>
@@ -4915,7 +4924,7 @@
       <c r="H15" s="5"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
         <v>128</v>
       </c>
@@ -4930,7 +4939,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>129</v>
       </c>
@@ -4945,7 +4954,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -4960,7 +4969,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>131</v>
       </c>
@@ -4975,7 +4984,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>132</v>
       </c>
@@ -4990,7 +4999,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>133</v>
       </c>
@@ -5005,7 +5014,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
         <v>134</v>
       </c>
@@ -5020,7 +5029,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>135</v>
       </c>
@@ -5035,7 +5044,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>136</v>
       </c>
@@ -5050,7 +5059,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>137</v>
       </c>
@@ -5065,7 +5074,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
         <v>138</v>
       </c>
@@ -5080,7 +5089,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>139</v>
       </c>
@@ -5095,7 +5104,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>140</v>
       </c>
@@ -5110,7 +5119,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>141</v>
       </c>
@@ -5125,7 +5134,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>142</v>
       </c>
@@ -5140,7 +5149,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
         <v>143</v>
       </c>
@@ -5155,7 +5164,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>144</v>
       </c>
@@ -5170,7 +5179,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
         <v>145</v>
       </c>
@@ -5185,7 +5194,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
         <v>146</v>
       </c>
@@ -5200,7 +5209,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>147</v>
       </c>
@@ -5215,7 +5224,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="10" t="s">
         <v>148</v>
       </c>
@@ -5230,7 +5239,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>149</v>
       </c>
@@ -5245,7 +5254,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
         <v>150</v>
       </c>
@@ -5260,7 +5269,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>151</v>
       </c>
@@ -5275,7 +5284,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
         <v>152</v>
       </c>
@@ -5290,7 +5299,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
         <v>153</v>
       </c>
@@ -5305,7 +5314,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
         <v>154</v>
       </c>
@@ -5320,7 +5329,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>155</v>
       </c>
@@ -5335,7 +5344,7 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="10" t="s">
         <v>156</v>
       </c>
@@ -5350,7 +5359,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
         <v>157</v>
       </c>
@@ -5365,7 +5374,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
         <v>158</v>
       </c>
@@ -5380,7 +5389,7 @@
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>159</v>
       </c>
@@ -5395,7 +5404,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
         <v>160</v>
       </c>
@@ -5410,7 +5419,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
         <v>161</v>
       </c>
@@ -5425,7 +5434,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>162</v>
       </c>
@@ -5440,7 +5449,7 @@
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
         <v>163</v>
       </c>
@@ -5455,7 +5464,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
         <v>164</v>
       </c>
@@ -5470,7 +5479,7 @@
       </c>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
         <v>165</v>
       </c>
@@ -5485,7 +5494,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
         <v>166</v>
       </c>
@@ -5500,7 +5509,7 @@
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
         <v>167</v>
       </c>
@@ -5515,7 +5524,7 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="10" t="s">
         <v>168</v>
       </c>
@@ -5530,7 +5539,7 @@
       </c>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
         <v>169</v>
       </c>
@@ -5545,7 +5554,7 @@
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="10" t="s">
         <v>170</v>
       </c>
@@ -5560,7 +5569,7 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7" t="s">
         <v>171</v>
       </c>
@@ -5575,7 +5584,7 @@
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
         <v>172</v>
       </c>
@@ -5590,7 +5599,7 @@
       </c>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7" t="s">
         <v>173</v>
       </c>
@@ -5605,7 +5614,7 @@
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
@@ -5620,7 +5629,7 @@
       </c>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="7" t="s">
         <v>175</v>
       </c>
@@ -5635,7 +5644,7 @@
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10" t="s">
         <v>176</v>
       </c>
@@ -5650,7 +5659,7 @@
       </c>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="7" t="s">
         <v>177</v>
       </c>
@@ -5665,7 +5674,7 @@
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="10" t="s">
         <v>178</v>
       </c>
@@ -5680,7 +5689,7 @@
       </c>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="7" t="s">
         <v>179</v>
       </c>
@@ -5695,7 +5704,7 @@
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="10" t="s">
         <v>180</v>
       </c>
@@ -5710,7 +5719,7 @@
       </c>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="7" t="s">
         <v>181</v>
       </c>
@@ -5725,7 +5734,7 @@
       </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="10" t="s">
         <v>182</v>
       </c>
@@ -5740,7 +5749,7 @@
       </c>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7" t="s">
         <v>183</v>
       </c>
@@ -5755,7 +5764,7 @@
       </c>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="10" t="s">
         <v>184</v>
       </c>
@@ -5770,7 +5779,7 @@
       </c>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="7" t="s">
         <v>185</v>
       </c>
@@ -5785,7 +5794,7 @@
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="10" t="s">
         <v>186</v>
       </c>
@@ -5800,7 +5809,7 @@
       </c>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="7" t="s">
         <v>187</v>
       </c>
@@ -5815,7 +5824,7 @@
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="10" t="s">
         <v>188</v>
       </c>
@@ -5830,7 +5839,7 @@
       </c>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="7" t="s">
         <v>189</v>
       </c>
@@ -5845,7 +5854,7 @@
       </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="10" t="s">
         <v>190</v>
       </c>
@@ -5860,7 +5869,7 @@
       </c>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="7" t="s">
         <v>191</v>
       </c>
@@ -5875,7 +5884,7 @@
       </c>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="10" t="s">
         <v>192</v>
       </c>
@@ -5890,7 +5899,7 @@
       </c>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="7" t="s">
         <v>193</v>
       </c>
@@ -5905,7 +5914,7 @@
       </c>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="10" t="s">
         <v>194</v>
       </c>
@@ -5920,7 +5929,7 @@
       </c>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="7" t="s">
         <v>195</v>
       </c>
@@ -5935,7 +5944,7 @@
       </c>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="10" t="s">
         <v>196</v>
       </c>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="7" t="s">
         <v>197</v>
       </c>
@@ -5965,7 +5974,7 @@
       </c>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="10" t="s">
         <v>198</v>
       </c>
@@ -5980,7 +5989,7 @@
       </c>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="7" t="s">
         <v>199</v>
       </c>
@@ -5995,7 +6004,7 @@
       </c>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="10" t="s">
         <v>200</v>
       </c>
@@ -6010,7 +6019,7 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="7" t="s">
         <v>201</v>
       </c>
@@ -6025,7 +6034,7 @@
       </c>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="10" t="s">
         <v>202</v>
       </c>
@@ -6040,7 +6049,7 @@
       </c>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="7" t="s">
         <v>203</v>
       </c>
@@ -6055,7 +6064,7 @@
       </c>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="10" t="s">
         <v>204</v>
       </c>
@@ -6070,7 +6079,7 @@
       </c>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="7" t="s">
         <v>205</v>
       </c>
@@ -6085,7 +6094,7 @@
       </c>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="10" t="s">
         <v>206</v>
       </c>
@@ -6100,7 +6109,7 @@
       </c>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>207</v>
       </c>
@@ -6115,7 +6124,7 @@
       </c>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="10" t="s">
         <v>208</v>
       </c>
@@ -6130,7 +6139,7 @@
       </c>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="7" t="s">
         <v>209</v>
       </c>
@@ -6145,7 +6154,7 @@
       </c>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="10" t="s">
         <v>210</v>
       </c>
@@ -6160,7 +6169,7 @@
       </c>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="7" t="s">
         <v>211</v>
       </c>
@@ -6175,7 +6184,7 @@
       </c>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="10" t="s">
         <v>212</v>
       </c>
@@ -6190,7 +6199,7 @@
       </c>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7" t="s">
         <v>213</v>
       </c>
@@ -6205,7 +6214,7 @@
       </c>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="10" t="s">
         <v>214</v>
       </c>
@@ -6220,7 +6229,7 @@
       </c>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7" t="s">
         <v>215</v>
       </c>
@@ -6235,7 +6244,7 @@
       </c>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="10" t="s">
         <v>216</v>
       </c>
@@ -6250,7 +6259,7 @@
       </c>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="7" t="s">
         <v>217</v>
       </c>
@@ -6265,7 +6274,7 @@
       </c>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="10" t="s">
         <v>218</v>
       </c>
@@ -6280,7 +6289,7 @@
       </c>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="7" t="s">
         <v>219</v>
       </c>
@@ -6295,7 +6304,7 @@
       </c>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="10" t="s">
         <v>220</v>
       </c>
@@ -6310,7 +6319,7 @@
       </c>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="7" t="s">
         <v>221</v>
       </c>
@@ -6325,7 +6334,7 @@
       </c>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="10" t="s">
         <v>222</v>
       </c>
@@ -6340,7 +6349,7 @@
       </c>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="7" t="s">
         <v>223</v>
       </c>
@@ -6355,7 +6364,7 @@
       </c>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="10" t="s">
         <v>224</v>
       </c>
@@ -6370,7 +6379,7 @@
       </c>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="7" t="s">
         <v>225</v>
       </c>
@@ -6385,7 +6394,7 @@
       </c>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="10" t="s">
         <v>226</v>
       </c>
@@ -6400,7 +6409,7 @@
       </c>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="7" t="s">
         <v>227</v>
       </c>
@@ -6415,7 +6424,7 @@
       </c>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="10" t="s">
         <v>228</v>
       </c>
@@ -6430,7 +6439,7 @@
       </c>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="7" t="s">
         <v>229</v>
       </c>
@@ -6445,7 +6454,7 @@
       </c>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="10" t="s">
         <v>230</v>
       </c>
@@ -6460,7 +6469,7 @@
       </c>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="7" t="s">
         <v>231</v>
       </c>
@@ -6475,7 +6484,7 @@
       </c>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="10" t="s">
         <v>232</v>
       </c>
@@ -6490,7 +6499,7 @@
       </c>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="7" t="s">
         <v>233</v>
       </c>
@@ -6505,7 +6514,7 @@
       </c>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="10" t="s">
         <v>234</v>
       </c>
@@ -6520,7 +6529,7 @@
       </c>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="7" t="s">
         <v>235</v>
       </c>
@@ -6535,7 +6544,7 @@
       </c>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="10" t="s">
         <v>236</v>
       </c>
@@ -6550,7 +6559,7 @@
       </c>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="7" t="s">
         <v>237</v>
       </c>
@@ -6565,7 +6574,7 @@
       </c>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="10" t="s">
         <v>238</v>
       </c>
@@ -6580,7 +6589,7 @@
       </c>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="7" t="s">
         <v>239</v>
       </c>
@@ -6595,7 +6604,7 @@
       </c>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="10" t="s">
         <v>240</v>
       </c>
@@ -6610,7 +6619,7 @@
       </c>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="7" t="s">
         <v>241</v>
       </c>
@@ -6625,7 +6634,7 @@
       </c>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="10" t="s">
         <v>242</v>
       </c>
@@ -6640,7 +6649,7 @@
       </c>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="7" t="s">
         <v>243</v>
       </c>
@@ -6655,7 +6664,7 @@
       </c>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="10" t="s">
         <v>244</v>
       </c>
@@ -6670,7 +6679,7 @@
       </c>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="7" t="s">
         <v>245</v>
       </c>
@@ -6685,7 +6694,7 @@
       </c>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="10" t="s">
         <v>246</v>
       </c>
@@ -6700,7 +6709,7 @@
       </c>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="7" t="s">
         <v>247</v>
       </c>
@@ -6715,7 +6724,7 @@
       </c>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="10" t="s">
         <v>248</v>
       </c>
@@ -6730,7 +6739,7 @@
       </c>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="7" t="s">
         <v>249</v>
       </c>
@@ -6745,7 +6754,7 @@
       </c>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="10" t="s">
         <v>250</v>
       </c>
@@ -6760,7 +6769,7 @@
       </c>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="7" t="s">
         <v>251</v>
       </c>
@@ -6775,7 +6784,7 @@
       </c>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="10" t="s">
         <v>252</v>
       </c>
@@ -6790,7 +6799,7 @@
       </c>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="7" t="s">
         <v>253</v>
       </c>
@@ -6805,7 +6814,7 @@
       </c>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="10" t="s">
         <v>254</v>
       </c>
@@ -6820,7 +6829,7 @@
       </c>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="7" t="s">
         <v>255</v>
       </c>
@@ -6835,7 +6844,7 @@
       </c>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="10" t="s">
         <v>256</v>
       </c>
@@ -6850,7 +6859,7 @@
       </c>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="7" t="s">
         <v>257</v>
       </c>
@@ -6865,7 +6874,7 @@
       </c>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="10" t="s">
         <v>258</v>
       </c>
@@ -6880,7 +6889,7 @@
       </c>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="7" t="s">
         <v>259</v>
       </c>
@@ -6895,7 +6904,7 @@
       </c>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="10" t="s">
         <v>260</v>
       </c>
@@ -6910,7 +6919,7 @@
       </c>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="7" t="s">
         <v>261</v>
       </c>
@@ -6925,7 +6934,7 @@
       </c>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="10" t="s">
         <v>262</v>
       </c>
@@ -6940,7 +6949,7 @@
       </c>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="7" t="s">
         <v>263</v>
       </c>
@@ -6955,7 +6964,7 @@
       </c>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="10" t="s">
         <v>264</v>
       </c>
@@ -6970,7 +6979,7 @@
       </c>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="7" t="s">
         <v>265</v>
       </c>
@@ -6985,7 +6994,7 @@
       </c>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="10" t="s">
         <v>266</v>
       </c>
@@ -7000,7 +7009,7 @@
       </c>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="7" t="s">
         <v>267</v>
       </c>
@@ -7015,7 +7024,7 @@
       </c>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="10" t="s">
         <v>268</v>
       </c>
@@ -7030,7 +7039,7 @@
       </c>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="7" t="s">
         <v>269</v>
       </c>
@@ -7045,7 +7054,7 @@
       </c>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="10" t="s">
         <v>270</v>
       </c>
@@ -7060,7 +7069,7 @@
       </c>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="7" t="s">
         <v>271</v>
       </c>
@@ -7075,7 +7084,7 @@
       </c>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="10" t="s">
         <v>272</v>
       </c>
@@ -7090,7 +7099,7 @@
       </c>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="7" t="s">
         <v>273</v>
       </c>
@@ -7105,7 +7114,7 @@
       </c>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="10" t="s">
         <v>274</v>
       </c>
@@ -7120,7 +7129,7 @@
       </c>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="7" t="s">
         <v>275</v>
       </c>
@@ -7135,7 +7144,7 @@
       </c>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="10" t="s">
         <v>276</v>
       </c>
@@ -7150,7 +7159,7 @@
       </c>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="7" t="s">
         <v>277</v>
       </c>
@@ -7165,7 +7174,7 @@
       </c>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="10" t="s">
         <v>278</v>
       </c>
@@ -7180,7 +7189,7 @@
       </c>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="7" t="s">
         <v>279</v>
       </c>
@@ -7195,7 +7204,7 @@
       </c>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="10" t="s">
         <v>280</v>
       </c>
@@ -7210,7 +7219,7 @@
       </c>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="7" t="s">
         <v>281</v>
       </c>
@@ -7225,7 +7234,7 @@
       </c>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="10" t="s">
         <v>282</v>
       </c>
@@ -7240,7 +7249,7 @@
       </c>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="7" t="s">
         <v>283</v>
       </c>
@@ -7255,7 +7264,7 @@
       </c>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="10" t="s">
         <v>284</v>
       </c>
@@ -7270,7 +7279,7 @@
       </c>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="7" t="s">
         <v>285</v>
       </c>
@@ -7285,7 +7294,7 @@
       </c>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="10" t="s">
         <v>286</v>
       </c>
@@ -7300,7 +7309,7 @@
       </c>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="7" t="s">
         <v>287</v>
       </c>
@@ -7315,7 +7324,7 @@
       </c>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="10" t="s">
         <v>288</v>
       </c>
@@ -7330,7 +7339,7 @@
       </c>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="7" t="s">
         <v>289</v>
       </c>
@@ -7345,7 +7354,7 @@
       </c>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="10" t="s">
         <v>290</v>
       </c>
@@ -7360,7 +7369,7 @@
       </c>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="7" t="s">
         <v>291</v>
       </c>
@@ -7375,7 +7384,7 @@
       </c>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="10" t="s">
         <v>292</v>
       </c>
@@ -7390,7 +7399,7 @@
       </c>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="7" t="s">
         <v>293</v>
       </c>
@@ -7405,7 +7414,7 @@
       </c>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="10" t="s">
         <v>294</v>
       </c>
@@ -7420,7 +7429,7 @@
       </c>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="7" t="s">
         <v>295</v>
       </c>
@@ -7435,7 +7444,7 @@
       </c>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="10" t="s">
         <v>296</v>
       </c>
@@ -7450,7 +7459,7 @@
       </c>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="7" t="s">
         <v>297</v>
       </c>
@@ -7465,7 +7474,7 @@
       </c>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="10" t="s">
         <v>298</v>
       </c>
@@ -7480,7 +7489,7 @@
       </c>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="7" t="s">
         <v>299</v>
       </c>
@@ -7495,7 +7504,7 @@
       </c>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="10" t="s">
         <v>300</v>
       </c>
@@ -7510,7 +7519,7 @@
       </c>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="7" t="s">
         <v>301</v>
       </c>
@@ -7525,7 +7534,7 @@
       </c>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="10" t="s">
         <v>302</v>
       </c>
@@ -7540,7 +7549,7 @@
       </c>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="7" t="s">
         <v>303</v>
       </c>
@@ -7555,7 +7564,7 @@
       </c>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="10" t="s">
         <v>304</v>
       </c>
@@ -7570,7 +7579,7 @@
       </c>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="7" t="s">
         <v>305</v>
       </c>
@@ -7585,7 +7594,7 @@
       </c>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="10" t="s">
         <v>306</v>
       </c>
@@ -7600,7 +7609,7 @@
       </c>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="7" t="s">
         <v>307</v>
       </c>
@@ -7615,7 +7624,7 @@
       </c>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="10" t="s">
         <v>308</v>
       </c>
@@ -7630,7 +7639,7 @@
       </c>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="7" t="s">
         <v>309</v>
       </c>
@@ -7645,7 +7654,7 @@
       </c>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="10" t="s">
         <v>310</v>
       </c>
@@ -7660,7 +7669,7 @@
       </c>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="7" t="s">
         <v>311</v>
       </c>
@@ -7675,7 +7684,7 @@
       </c>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="10" t="s">
         <v>312</v>
       </c>
@@ -7690,7 +7699,7 @@
       </c>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="7" t="s">
         <v>313</v>
       </c>
@@ -7705,7 +7714,7 @@
       </c>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="10" t="s">
         <v>314</v>
       </c>
@@ -7720,7 +7729,7 @@
       </c>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="7" t="s">
         <v>315</v>
       </c>
@@ -7735,7 +7744,7 @@
       </c>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="10" t="s">
         <v>316</v>
       </c>
@@ -7750,7 +7759,7 @@
       </c>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="7" t="s">
         <v>317</v>
       </c>
@@ -7765,7 +7774,7 @@
       </c>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="10" t="s">
         <v>318</v>
       </c>
@@ -7780,7 +7789,7 @@
       </c>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="7" t="s">
         <v>319</v>
       </c>
@@ -7795,7 +7804,7 @@
       </c>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="10" t="s">
         <v>320</v>
       </c>
@@ -7810,7 +7819,7 @@
       </c>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
         <v>321</v>
       </c>
@@ -7825,7 +7834,7 @@
       </c>
       <c r="H209" s="5"/>
     </row>
-    <row r="210" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="10" t="s">
         <v>322</v>
       </c>
@@ -7840,7 +7849,7 @@
       </c>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="7" t="s">
         <v>323</v>
       </c>
@@ -7855,7 +7864,7 @@
       </c>
       <c r="H211" s="5"/>
     </row>
-    <row r="212" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="10" t="s">
         <v>324</v>
       </c>
@@ -7870,7 +7879,7 @@
       </c>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="7" t="s">
         <v>325</v>
       </c>
@@ -7885,7 +7894,7 @@
       </c>
       <c r="H213" s="5"/>
     </row>
-    <row r="214" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="10" t="s">
         <v>326</v>
       </c>
@@ -7900,7 +7909,7 @@
       </c>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="7" t="s">
         <v>327</v>
       </c>
@@ -7915,7 +7924,7 @@
       </c>
       <c r="H215" s="5"/>
     </row>
-    <row r="216" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="10" t="s">
         <v>328</v>
       </c>
@@ -7930,7 +7939,7 @@
       </c>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="7" t="s">
         <v>329</v>
       </c>
@@ -7945,7 +7954,7 @@
       </c>
       <c r="H217" s="5"/>
     </row>
-    <row r="218" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="10" t="s">
         <v>330</v>
       </c>
@@ -7960,7 +7969,7 @@
       </c>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="7" t="s">
         <v>331</v>
       </c>
@@ -7975,7 +7984,7 @@
       </c>
       <c r="H219" s="5"/>
     </row>
-    <row r="220" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="10" t="s">
         <v>332</v>
       </c>
@@ -7990,7 +7999,7 @@
       </c>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="7" t="s">
         <v>333</v>
       </c>
@@ -8005,7 +8014,7 @@
       </c>
       <c r="H221" s="5"/>
     </row>
-    <row r="222" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="10" t="s">
         <v>334</v>
       </c>
@@ -8020,7 +8029,7 @@
       </c>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="7" t="s">
         <v>335</v>
       </c>
@@ -8035,7 +8044,7 @@
       </c>
       <c r="H223" s="5"/>
     </row>
-    <row r="224" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="10" t="s">
         <v>336</v>
       </c>
@@ -8050,7 +8059,7 @@
       </c>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="7" t="s">
         <v>337</v>
       </c>
@@ -8065,7 +8074,7 @@
       </c>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="10" t="s">
         <v>338</v>
       </c>
@@ -8080,7 +8089,7 @@
       </c>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="7" t="s">
         <v>339</v>
       </c>
@@ -8095,7 +8104,7 @@
       </c>
       <c r="H227" s="5"/>
     </row>
-    <row r="228" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="10" t="s">
         <v>340</v>
       </c>
@@ -8110,7 +8119,7 @@
       </c>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="7" t="s">
         <v>341</v>
       </c>
@@ -8125,7 +8134,7 @@
       </c>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="10" t="s">
         <v>342</v>
       </c>
@@ -8140,7 +8149,7 @@
       </c>
       <c r="H230" s="8"/>
     </row>
-    <row r="231" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="7" t="s">
         <v>343</v>
       </c>
@@ -8155,7 +8164,7 @@
       </c>
       <c r="H231" s="5"/>
     </row>
-    <row r="232" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="10" t="s">
         <v>344</v>
       </c>
@@ -8170,7 +8179,7 @@
       </c>
       <c r="H232" s="8"/>
     </row>
-    <row r="233" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B233" s="4" t="s">
         <v>345</v>
       </c>
@@ -8201,15 +8210,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="21" t="s">
         <v>100</v>
       </c>
@@ -8219,7 +8228,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
@@ -8227,7 +8236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>43</v>
       </c>
@@ -8250,7 +8259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="26" t="s">
         <v>50</v>
       </c>
@@ -8273,7 +8282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="38" t="s">
         <v>54</v>
       </c>
@@ -8296,7 +8305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="32" t="s">
         <v>59</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -8324,8 +8333,8 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:9" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B11" s="21" t="s">
         <v>102</v>
       </c>
@@ -8333,12 +8342,12 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>60</v>
       </c>
@@ -8349,7 +8358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="26" t="s">
         <v>63</v>
       </c>
@@ -8360,7 +8369,7 @@
         <v>1055.55</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="39" t="s">
         <v>64</v>
       </c>
@@ -8371,7 +8380,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
@@ -8382,7 +8391,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="39" t="s">
         <v>67</v>
       </c>
@@ -8393,7 +8402,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="26" t="s">
         <v>69</v>
       </c>
@@ -8404,7 +8413,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="39" t="s">
         <v>70</v>
       </c>
@@ -8415,7 +8424,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
         <v>71</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="39" t="s">
         <v>72</v>
       </c>
@@ -8437,7 +8446,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="26" t="s">
         <v>73</v>
       </c>
@@ -8448,7 +8457,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="39" t="s">
         <v>74</v>
       </c>
@@ -8459,7 +8468,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="26" t="s">
         <v>76</v>
       </c>
@@ -8470,7 +8479,7 @@
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
@@ -8481,7 +8490,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26" t="s">
         <v>80</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="39" t="s">
         <v>81</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>37.681199999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26" t="s">
         <v>82</v>
       </c>
@@ -8514,7 +8523,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="39" t="s">
         <v>83</v>
       </c>
@@ -8525,7 +8534,7 @@
         <v>2.7777769999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="26" t="s">
         <v>52</v>
       </c>
@@ -8537,7 +8546,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="39" t="s">
         <v>52</v>
       </c>
@@ -8548,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="29" t="s">
         <v>50</v>
       </c>
@@ -8573,23 +8582,23 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
-    <col min="2" max="2" width="10.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9.1328125" style="51"/>
+    <col min="2" max="2" width="10.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="51"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>14</v>
       </c>
@@ -8600,7 +8609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
         <v>105</v>
       </c>
@@ -8617,15 +8626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -8820,6 +8820,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8832,14 +8841,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF3B048-6584-4615-8631-3D2FB0E67A91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8858,6 +8859,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
   <ds:schemaRefs>
